--- a/DesignerRawData/Excel/Chapter2.xlsx
+++ b/DesignerRawData/Excel/Chapter2.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{47AD8A6A-B915-4BB5-AAAF-1D9DC70CFE38}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FCB4E8-64AA-49D0-9E57-BB876D46F70B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chapter2-1" sheetId="8" r:id="rId1"/>
-    <sheet name="Chapter2-1_room0" sheetId="9" r:id="rId2"/>
-    <sheet name="Chapter2-1_room1" sheetId="10" r:id="rId3"/>
-    <sheet name="Chapter2-1_room2" sheetId="11" r:id="rId4"/>
-    <sheet name="Chapter2-1_Choice" sheetId="6" r:id="rId5"/>
+    <sheet name="DT_Chapter2-1" sheetId="8" r:id="rId1"/>
+    <sheet name="DT_Chapter2-1_room0" sheetId="9" r:id="rId2"/>
+    <sheet name="DT_Chapter2-1_room1" sheetId="10" r:id="rId3"/>
+    <sheet name="DT_Chapter2-1_room2" sheetId="11" r:id="rId4"/>
+    <sheet name="DT_Chapter2-1_Choice" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -285,21 +285,6 @@
         <row r="2">
           <cell r="A2" t="str">
             <v>id_programmer</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>id_designer</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>id_artist</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>id_unknwon</v>
           </cell>
         </row>
       </sheetData>
@@ -662,7 +647,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -775,7 +760,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -860,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BDD5D1-9C9E-4F99-AD63-C3BC854F04FE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -916,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B349367-CC38-46D3-9977-E9F7CC21194C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/DesignerRawData/Excel/Chapter2.xlsx
+++ b/DesignerRawData/Excel/Chapter2.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FCB4E8-64AA-49D0-9E57-BB876D46F70B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B80341E-6692-4214-84A7-6DBD2E85C21B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DT_Chapter2-1" sheetId="8" r:id="rId1"/>
-    <sheet name="DT_Chapter2-1_room0" sheetId="9" r:id="rId2"/>
-    <sheet name="DT_Chapter2-1_room1" sheetId="10" r:id="rId3"/>
-    <sheet name="DT_Chapter2-1_room2" sheetId="11" r:id="rId4"/>
-    <sheet name="DT_Chapter2-1_Choice" sheetId="6" r:id="rId5"/>
+    <sheet name="Chapter2-1_StringTable" sheetId="1" r:id="rId1"/>
+    <sheet name="Chapter2-2_StringTable" sheetId="2" r:id="rId2"/>
+    <sheet name="Chapter2-2-Choice0_StringTable" sheetId="3" r:id="rId3"/>
+    <sheet name="Chapter2-2-Choice1_StringTable" sheetId="4" r:id="rId4"/>
+    <sheet name="Chapter2-2-Choice2_StringTable" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="DialogueTalkerName.xlsx">[1]!DialogueTalkerNameID</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,9 +24,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
-  <si>
-    <t>id_chapter_title</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SourceString</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>This demo will show you how to use SetWidgetList to Hide/Show multiple Widget at same time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First, let's show Image_CharacterLeft, Image_CharacterRight and Image_CharacterCenter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then hide Image_CharacterCenter in next SetWidgetList event.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We can also additional functions for the event, ex: create tween events for widget, in OnDialogueEventPreStart event callback.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After tween events are applied,  use WaitPendingAction to wait until tween action finished and clear all pending Dialogue Events.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If HideDialogueObject of WaitPendingAction's param is enabled,  then all widgets we used before last WaitPendingAction envents will be hided.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So now, let's try to hide the image use WaitPendingAction event.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can see we just hide Image_CharacterRight widget using WaitPendingActionEvent with HideDialogueObject flag enabled.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -40,11 +76,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DialogueText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DialogueTalkerNameID</t>
+    <t>id_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_005</t>
+  </si>
+  <si>
+    <t>id_006</t>
+  </si>
+  <si>
+    <t>id_007</t>
+  </si>
+  <si>
+    <t>id_008</t>
+  </si>
+  <si>
+    <t>id_009</t>
+  </si>
+  <si>
+    <t>id_010</t>
+  </si>
+  <si>
+    <t>id_011</t>
+  </si>
+  <si>
+    <t>This demo will show you how to use choice feature in this plugin, please try to select a Option.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Option selected.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option0 selected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -52,163 +125,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id_003</t>
-  </si>
-  <si>
-    <t>id_004</t>
-  </si>
-  <si>
-    <t>id_artist</t>
-  </si>
-  <si>
-    <t>夕陽西下，街道上開始湧現下班的人潮，然而，horizon-studio的一天才正要開始。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為了要趕上月底的遊戲展，全體員工已經連續加班超過了一個月，因此團隊中的成員也開始出現了不平的聲音。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天，我一定要求加薪！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choice_front_room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前面的房間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choice_left_room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左邊的房間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choice_right_room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右邊的房間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choice_back_room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>後面的房間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首先發難的是團隊中的美術，今天的她下定決心要找到老闆，為自己平時的辛勞爭取金錢上的補償。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那麼，接下來我該往哪裡走呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老闆應該不可能待在這種地方。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(房間2)這裡是倉庫，看起來堆著許多平常用不到的東西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(房間1)這裡是大門口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(房間0)這裡是美術工作區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_t1_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_t1_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_t2_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(房間0)不知為何又繞回美術工作區了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_t2_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(房間1)大門口看起來沒有異樣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_t1_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好想回家……(泣)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雖然已經是下班時間了，但今天看起來還是要加班。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平常我都是在這個房間工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗯？為什麼又繞回來了？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快點去找老闆吧，不然今天就要過了</t>
-  </si>
-  <si>
-    <t>id_t2_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_t3_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(房間0)美術工作區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_t3_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好吧，只好乖乖工作了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_t3_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bad End 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外面的天色已經暗了</t>
+    <t>Option1 selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option2 selected, selection loop will exit.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,28 +190,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DialogueTalkerName"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="DialogueTalkerNameID" refersTo="='DialogueTalkerName'!$A:$A"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>id_programmer</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,24 +454,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA70356-5547-4602-9DB2-292607A0A437}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="103.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="82.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -580,87 +480,108 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{11AFAEC2-B27B-4F28-A942-69D8C5A979E4}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B4 B5:B1048576" xr:uid="{63460F4F-E029-4182-93EF-0AB56927B2F6}">
-      <formula1>DialogueTalkerName.xlsx</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FFE35A-0C51-4971-AFF3-B59C7217A8B3}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEDEB8A-8BDF-4539-9D70-8951C4271F61}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="103.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -670,110 +591,40 @@
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{57BD58C3-A527-4800-A120-EDBF120332B1}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{41DB2B4C-8D2B-478B-BE6B-441A06FE4136}">
-      <formula1>DialogueTalkerName.xlsx</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613E7792-1655-404D-A259-5AD64A3E15C7}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A50984-02CF-4951-BDAB-17F3F792535B}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="103.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -783,83 +634,32 @@
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{C8CC4A65-0DD9-4F32-8AA1-50641BAA6A53}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{7ADEF03B-32A1-4AFE-BCD2-EAFF01BAFD73}">
-      <formula1>DialogueTalkerName.xlsx</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BDD5D1-9C9E-4F99-AD63-C3BC854F04FE}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D829979B-1D3C-487E-8074-6B0C40717876}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="103.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -867,90 +667,49 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{9564EEA9-CB8A-4BFE-B8ED-810A360458CB}">
-      <formula1>DialogueTalkerName.xlsx</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{E1463334-6A92-4B84-9030-B07809BA5451}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B349367-CC38-46D3-9977-E9F7CC21194C}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A5EAF7-7BCC-4E9A-98AD-487E8024BACF}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>